--- a/src/assets/data/database.xlsx
+++ b/src/assets/data/database.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f702fcbf27982aa9/GitHub/Genshin-Impact/src/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_FAA0B526646711FC204600CCE777DB5597D1761E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72909CB8-8EF6-4E77-BD27-E0C652D94531}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_FAA0B526646711FC204600CCE777DB5597D1761E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D75B02E9-6E36-4163-96E2-23E76D7B25E8}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Spiral Abyss Usage Rate" sheetId="1" r:id="rId1"/>
+    <sheet name="Spiral Abyss Usage Rate" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Characters" sheetId="2" r:id="rId2"/>
     <sheet name="Weapons" sheetId="3" r:id="rId3"/>
     <sheet name="Builds" sheetId="4" r:id="rId4"/>
@@ -2012,10 +2012,10 @@
   <dimension ref="A1:AU82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ3" sqref="AJ3"/>
+      <selection pane="bottomRight" activeCell="AJ34" sqref="AJ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2224,6 +2224,9 @@
       <c r="AH2" s="3">
         <v>0.86899999999999999</v>
       </c>
+      <c r="AI2" s="3">
+        <v>0.94</v>
+      </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2328,6 +2331,9 @@
       <c r="AH3" s="3">
         <v>0.79600000000000004</v>
       </c>
+      <c r="AI3" s="3">
+        <v>0.86199999999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2369,6 +2375,9 @@
       <c r="AH4" s="3">
         <v>0.78300000000000003</v>
       </c>
+      <c r="AI4" s="3">
+        <v>0.91400000000000003</v>
+      </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2588,6 +2597,9 @@
       <c r="AH7" s="3">
         <v>0.69799999999999995</v>
       </c>
+      <c r="AI7" s="3">
+        <v>0.65900000000000003</v>
+      </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2653,6 +2665,9 @@
       <c r="AH8" s="3">
         <v>0.58899999999999997</v>
       </c>
+      <c r="AI8" s="3">
+        <v>0.73799999999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2757,6 +2772,9 @@
       <c r="AH9" s="3">
         <v>0.57099999999999995</v>
       </c>
+      <c r="AI9" s="3">
+        <v>0.56200000000000006</v>
+      </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2854,6 +2872,9 @@
       </c>
       <c r="AH10" s="3">
         <v>0.56799999999999995</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>0.67700000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
@@ -9405,7 +9426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -17764,7 +17785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F0AEE6-ACC0-423A-906A-3DE5DE6751CD}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
